--- a/estadisticas.xlsx
+++ b/estadisticas.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -692,6 +692,26 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Paloma</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ganador</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
